--- a/Reports/AreDifferent/decryption_hotWater_byHouse2/decryption_hotWater_byHouse2.xlsx
+++ b/Reports/AreDifferent/decryption_hotWater_byHouse2/decryption_hotWater_byHouse2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
   <si>
     <t>Утверждаю :</t>
   </si>
@@ -110,9 +110,6 @@
     <t>$t1['value5_dev']</t>
   </si>
   <si>
-    <t>$t1['value6']</t>
-  </si>
-  <si>
     <t>$t1['person_device']</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
   </si>
   <si>
     <t>$SUM_t1['value4_std']</t>
-  </si>
-  <si>
-    <t>$SUM_t1['value6']</t>
   </si>
   <si>
     <t>Width</t>
@@ -391,9 +385,6 @@
     <t>Стоимость услуги по тарифу, установленному РЭК КО РСО</t>
   </si>
   <si>
-    <t>"=K$R+L$R+M$R+N$R+O$R"</t>
-  </si>
-  <si>
     <t>Итого по ИПУ</t>
   </si>
   <si>
@@ -422,6 +413,12 @@
   </si>
   <si>
     <t>"=(AD$R-AA$R)/1.2"</t>
+  </si>
+  <si>
+    <t>"=K$R+N$R"</t>
+  </si>
+  <si>
+    <t>"=O$R+P$R"</t>
   </si>
 </sst>
 </file>
@@ -1091,6 +1088,48 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1166,31 +1205,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="25" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,18 +1238,18 @@
     <xf numFmtId="165" fontId="25" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="25" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="26" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="26" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1232,65 +1268,26 @@
     <xf numFmtId="4" fontId="27" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="27" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="27" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="27" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="27" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="27" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="27" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1605,8 +1602,8 @@
   </sheetPr>
   <dimension ref="A1:BR64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z17" workbookViewId="0">
-      <selection activeCell="AJ27" sqref="AJ27"/>
+    <sheetView tabSelected="1" topLeftCell="I17" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1631,19 +1628,19 @@
   <sheetData>
     <row r="1" spans="1:70" s="15" customFormat="1">
       <c r="AR1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT1" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="AS1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT1" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="AU1" s="16">
         <v>33</v>
       </c>
       <c r="AV1" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AW1" s="16"/>
       <c r="AX1" s="16"/>
@@ -1747,24 +1744,24 @@
       <c r="BR3" s="16"/>
     </row>
     <row r="4" spans="1:70" s="15" customFormat="1" ht="18.75">
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="100"/>
       <c r="AQ4" s="16"/>
       <c r="AR4" s="16"/>
       <c r="AS4" s="16"/>
@@ -1795,24 +1792,24 @@
       <c r="BR4" s="16"/>
     </row>
     <row r="5" spans="1:70" s="15" customFormat="1" ht="18.75">
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="100"/>
+      <c r="Z5" s="100"/>
+      <c r="AA5" s="100"/>
+      <c r="AB5" s="100"/>
+      <c r="AC5" s="100"/>
+      <c r="AD5" s="100"/>
+      <c r="AE5" s="100"/>
       <c r="AQ5" s="16"/>
       <c r="AR5" s="16"/>
       <c r="AS5" s="16"/>
@@ -1921,39 +1918,39 @@
       <c r="BR7" s="16"/>
     </row>
     <row r="8" spans="1:70" s="15" customFormat="1" ht="20.25">
-      <c r="A8" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
+      <c r="A8" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
       <c r="AQ8" s="16"/>
       <c r="AR8" s="16"/>
       <c r="AS8" s="16"/>
@@ -1984,39 +1981,39 @@
       <c r="BR8" s="16"/>
     </row>
     <row r="9" spans="1:70" s="15" customFormat="1">
-      <c r="A9" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="88"/>
+      <c r="A9" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="102"/>
       <c r="AQ9" s="16"/>
       <c r="AR9" s="16"/>
       <c r="AS9" s="16"/>
@@ -2047,39 +2044,39 @@
       <c r="BR9" s="16"/>
     </row>
     <row r="10" spans="1:70" s="15" customFormat="1" ht="20.25">
-      <c r="A10" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
+      <c r="A10" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="103"/>
       <c r="AQ10" s="16"/>
       <c r="AR10" s="16"/>
       <c r="AS10" s="16"/>
@@ -2110,39 +2107,39 @@
       <c r="BR10" s="16"/>
     </row>
     <row r="11" spans="1:70" s="15" customFormat="1" ht="20.25">
-      <c r="A11" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="89"/>
+      <c r="A11" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="103"/>
+      <c r="Y11" s="103"/>
+      <c r="Z11" s="103"/>
+      <c r="AA11" s="103"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="103"/>
+      <c r="AE11" s="103"/>
       <c r="AQ11" s="16"/>
       <c r="AR11" s="16"/>
       <c r="AS11" s="16"/>
@@ -2173,39 +2170,39 @@
       <c r="BR11" s="16"/>
     </row>
     <row r="12" spans="1:70" s="15" customFormat="1" ht="20.25">
-      <c r="A12" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="90"/>
+      <c r="A12" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="104"/>
       <c r="AQ12" s="16"/>
       <c r="AR12" s="16"/>
       <c r="AS12" s="16"/>
@@ -2374,7 +2371,7 @@
       <c r="O16" s="41"/>
       <c r="P16" s="41"/>
       <c r="Q16" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R16" s="42"/>
       <c r="S16" s="42"/>
@@ -2742,7 +2739,7 @@
       <c r="O21" s="40"/>
       <c r="P21" s="40"/>
       <c r="Q21" s="45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R21" s="45"/>
       <c r="S21" s="45"/>
@@ -2962,7 +2959,7 @@
       <c r="O24" s="40"/>
       <c r="P24" s="40"/>
       <c r="Q24" s="45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R24" s="45"/>
       <c r="S24" s="45"/>
@@ -3163,39 +3160,39 @@
       <c r="BR26" s="16"/>
     </row>
     <row r="27" spans="1:70" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="92"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="92"/>
-      <c r="AD27" s="92"/>
-      <c r="AE27" s="92"/>
+      <c r="A27" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="106"/>
+      <c r="AB27" s="106"/>
+      <c r="AC27" s="106"/>
+      <c r="AD27" s="106"/>
+      <c r="AE27" s="106"/>
       <c r="AF27" s="49"/>
       <c r="AG27" s="49"/>
       <c r="AH27" s="49"/>
@@ -3237,39 +3234,39 @@
       <c r="BR27" s="16"/>
     </row>
     <row r="28" spans="1:70" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
+      <c r="A28" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="106"/>
+      <c r="X28" s="106"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="106"/>
+      <c r="AA28" s="106"/>
+      <c r="AB28" s="106"/>
+      <c r="AC28" s="106"/>
+      <c r="AD28" s="106"/>
+      <c r="AE28" s="106"/>
       <c r="AF28" s="50"/>
       <c r="AG28" s="50"/>
       <c r="AH28" s="50"/>
@@ -3311,39 +3308,39 @@
       <c r="BR28" s="16"/>
     </row>
     <row r="29" spans="1:70" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="93" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="94"/>
+      <c r="A29" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="108"/>
+      <c r="U29" s="108"/>
+      <c r="V29" s="108"/>
+      <c r="W29" s="108"/>
+      <c r="X29" s="108"/>
+      <c r="Y29" s="108"/>
+      <c r="Z29" s="108"/>
+      <c r="AA29" s="108"/>
+      <c r="AB29" s="108"/>
+      <c r="AC29" s="108"/>
+      <c r="AD29" s="108"/>
+      <c r="AE29" s="108"/>
       <c r="AF29" s="51"/>
       <c r="AG29" s="51"/>
       <c r="AH29" s="51"/>
@@ -3385,198 +3382,198 @@
       <c r="BR29" s="16"/>
     </row>
     <row r="30" spans="1:70" ht="15" customHeight="1">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="95" t="s">
+      <c r="C30" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95" t="s">
+      <c r="D30" s="109"/>
+      <c r="E30" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="95" t="s">
+      <c r="F30" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="110" t="s">
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="110"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="115" t="s">
+      <c r="K30" s="122"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="109"/>
+      <c r="R30" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="S30" s="129"/>
+      <c r="T30" s="129"/>
+      <c r="U30" s="129"/>
+      <c r="V30" s="129"/>
+      <c r="W30" s="129"/>
+      <c r="X30" s="136" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y30" s="139" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z30" s="139"/>
+      <c r="AA30" s="139"/>
+      <c r="AB30" s="139" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC30" s="139"/>
+      <c r="AD30" s="139"/>
+      <c r="AE30" s="140" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH30" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK30" s="99"/>
+      <c r="AL30" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM30" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN30" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO30" s="111"/>
+      <c r="AP30" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ30" s="112"/>
+    </row>
+    <row r="31" spans="1:70" ht="15" customHeight="1">
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="K31" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="L31" s="122" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="130" t="s">
+        <v>112</v>
+      </c>
+      <c r="S31" s="130" t="s">
+        <v>15</v>
+      </c>
+      <c r="T31" s="132" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="V31" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="W31" s="134" t="s">
         <v>113</v>
       </c>
-      <c r="S30" s="116"/>
-      <c r="T30" s="116"/>
-      <c r="U30" s="116"/>
-      <c r="V30" s="116"/>
-      <c r="W30" s="116"/>
-      <c r="X30" s="123" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y30" s="126" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z30" s="126"/>
-      <c r="AA30" s="126"/>
-      <c r="AB30" s="126" t="s">
+      <c r="X31" s="137"/>
+      <c r="Y31" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="AC30" s="126"/>
-      <c r="AD30" s="126"/>
-      <c r="AE30" s="127" t="s">
+      <c r="Z31" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="80" t="s">
+      <c r="AA31" s="145" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB31" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC31" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD31" s="147" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE31" s="141"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI31" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="AH30" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI30" s="84"/>
-      <c r="AJ30" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK30" s="85"/>
-      <c r="AL30" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM30" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN30" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO30" s="97"/>
-      <c r="AP30" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ30" s="98"/>
-    </row>
-    <row r="31" spans="1:70" ht="15" customHeight="1">
-      <c r="A31" s="95"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="K31" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="L31" s="110" t="s">
-        <v>16</v>
-      </c>
-      <c r="M31" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="O31" s="111" t="s">
-        <v>112</v>
-      </c>
-      <c r="P31" s="135"/>
-      <c r="Q31" s="136"/>
-      <c r="R31" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="S31" s="117" t="s">
-        <v>15</v>
-      </c>
-      <c r="T31" s="118" t="s">
-        <v>20</v>
-      </c>
-      <c r="U31" s="117" t="s">
-        <v>18</v>
-      </c>
-      <c r="V31" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="W31" s="120" t="s">
-        <v>115</v>
-      </c>
-      <c r="X31" s="124"/>
-      <c r="Y31" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z31" s="128" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA31" s="129" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB31" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC31" s="128" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD31" s="130" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE31" s="131"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="81"/>
-      <c r="AH31" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI31" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ31" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK31" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL31" s="104"/>
-      <c r="AM31" s="104"/>
-      <c r="AN31" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO31" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP31" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ31" s="100" t="s">
-        <v>92</v>
+      <c r="AJ31" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK31" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL31" s="118"/>
+      <c r="AM31" s="118"/>
+      <c r="AN31" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO31" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP31" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ31" s="114" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:70" ht="57" customHeight="1">
-      <c r="A32" s="95"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="7" t="s">
         <v>20</v>
       </c>
@@ -3586,46 +3583,46 @@
       <c r="I32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="P32" s="112" t="s">
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="P32" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="Q32" s="112" t="s">
+      <c r="Q32" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="R32" s="119"/>
-      <c r="S32" s="119"/>
-      <c r="T32" s="121"/>
-      <c r="U32" s="119"/>
-      <c r="V32" s="119"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="125"/>
-      <c r="Y32" s="132"/>
-      <c r="Z32" s="132"/>
-      <c r="AA32" s="133"/>
-      <c r="AB32" s="132"/>
-      <c r="AC32" s="132"/>
-      <c r="AD32" s="129"/>
-      <c r="AE32" s="134"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="131"/>
+      <c r="T32" s="133"/>
+      <c r="U32" s="131"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="138"/>
+      <c r="Y32" s="144"/>
+      <c r="Z32" s="144"/>
+      <c r="AA32" s="146"/>
+      <c r="AB32" s="144"/>
+      <c r="AC32" s="144"/>
+      <c r="AD32" s="145"/>
+      <c r="AE32" s="142"/>
       <c r="AF32" s="28"/>
-      <c r="AG32" s="81"/>
-      <c r="AH32" s="81"/>
-      <c r="AI32" s="81"/>
-      <c r="AJ32" s="81"/>
-      <c r="AK32" s="81"/>
-      <c r="AL32" s="104"/>
-      <c r="AM32" s="104"/>
-      <c r="AN32" s="101"/>
-      <c r="AO32" s="101"/>
-      <c r="AP32" s="101"/>
-      <c r="AQ32" s="101"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="95"/>
+      <c r="AJ32" s="95"/>
+      <c r="AK32" s="95"/>
+      <c r="AL32" s="118"/>
+      <c r="AM32" s="118"/>
+      <c r="AN32" s="115"/>
+      <c r="AO32" s="115"/>
+      <c r="AP32" s="115"/>
+      <c r="AQ32" s="115"/>
     </row>
     <row r="33" spans="1:70" s="8" customFormat="1">
       <c r="A33" s="9">
@@ -3668,13 +3665,13 @@
       <c r="N33" s="9">
         <v>14</v>
       </c>
-      <c r="O33" s="113">
+      <c r="O33" s="81">
         <v>15</v>
       </c>
-      <c r="P33" s="114">
+      <c r="P33" s="82">
         <v>16</v>
       </c>
-      <c r="Q33" s="113">
+      <c r="Q33" s="81">
         <v>17</v>
       </c>
       <c r="R33" s="10"/>
@@ -3692,23 +3689,23 @@
       <c r="AD33" s="10"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="29"/>
-      <c r="AG33" s="82"/>
-      <c r="AH33" s="82"/>
-      <c r="AI33" s="82"/>
-      <c r="AJ33" s="82"/>
-      <c r="AK33" s="82"/>
-      <c r="AL33" s="105"/>
-      <c r="AM33" s="105"/>
-      <c r="AN33" s="102"/>
-      <c r="AO33" s="102"/>
-      <c r="AP33" s="102"/>
-      <c r="AQ33" s="102"/>
+      <c r="AG33" s="96"/>
+      <c r="AH33" s="96"/>
+      <c r="AI33" s="96"/>
+      <c r="AJ33" s="96"/>
+      <c r="AK33" s="96"/>
+      <c r="AL33" s="119"/>
+      <c r="AM33" s="119"/>
+      <c r="AN33" s="116"/>
+      <c r="AO33" s="116"/>
+      <c r="AP33" s="116"/>
+      <c r="AQ33" s="116"/>
       <c r="AS33" s="17"/>
       <c r="AW33" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AX33" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AZ33" s="16"/>
       <c r="BA33" s="16"/>
@@ -3722,25 +3719,25 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I34" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="J34" s="6" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>29</v>
@@ -3749,32 +3746,32 @@
         <v>30</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R34" s="137" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q34" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="R34" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="S34" s="84"/>
+      <c r="T34" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="U34" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="V34" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="S34" s="138"/>
-      <c r="T34" s="137" t="s">
-        <v>129</v>
-      </c>
-      <c r="U34" s="137" t="s">
-        <v>130</v>
-      </c>
-      <c r="V34" s="137" t="s">
-        <v>131</v>
-      </c>
-      <c r="W34" s="138"/>
-      <c r="X34" s="138">
+      <c r="W34" s="84"/>
+      <c r="X34" s="84">
         <v>5.9799999999999999E-2</v>
       </c>
       <c r="Y34" s="13">
@@ -3783,8 +3780,8 @@
       <c r="Z34" s="13">
         <v>48.17</v>
       </c>
-      <c r="AA34" s="145" t="s">
-        <v>132</v>
+      <c r="AA34" s="91" t="s">
+        <v>129</v>
       </c>
       <c r="AB34" s="13">
         <v>2507.2800000000002</v>
@@ -3792,57 +3789,57 @@
       <c r="AC34" s="13">
         <v>48.17</v>
       </c>
-      <c r="AD34" s="145" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE34" s="145" t="s">
-        <v>134</v>
+      <c r="AD34" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE34" s="91" t="s">
+        <v>131</v>
       </c>
       <c r="AF34" s="30"/>
       <c r="AG34" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH34" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI34" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ34" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK34" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL34" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="AH34" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI34" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ34" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK34" s="33" t="s">
+      <c r="AM34" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN34" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="AL34" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM34" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN34" s="35" t="s">
+      <c r="AO34" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="AO34" s="35" t="s">
+      <c r="AP34" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="AP34" s="35" t="s">
+      <c r="AQ34" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AQ34" s="35" t="s">
-        <v>89</v>
-      </c>
       <c r="AS34" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AT34" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AU34" s="19">
         <v>1</v>
       </c>
       <c r="AV34" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AW34" s="20"/>
       <c r="AX34" s="20"/>
@@ -3852,138 +3849,138 @@
       <c r="BB34" s="21"/>
     </row>
     <row r="35" spans="1:70" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="107"/>
+      <c r="A35" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="124"/>
       <c r="C35" s="23"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G35" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="L35" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="K35" s="24" t="s">
+      <c r="M35" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="P35" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q35" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="R35" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="S35" s="86"/>
+      <c r="T35" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="U35" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="L35" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="M35" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="N35" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O35" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="P35" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q35" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="R35" s="139" t="s">
+      <c r="V35" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="S35" s="140"/>
-      <c r="T35" s="139" t="s">
+      <c r="W35" s="86"/>
+      <c r="X35" s="86">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="Y35" s="89">
+        <v>639.79999999999995</v>
+      </c>
+      <c r="Z35" s="89">
+        <v>48.17</v>
+      </c>
+      <c r="AA35" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="U35" s="139" t="s">
+      <c r="AB35" s="89">
+        <v>2507.2800000000002</v>
+      </c>
+      <c r="AC35" s="89">
+        <v>48.17</v>
+      </c>
+      <c r="AD35" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="V35" s="139" t="s">
+      <c r="AE35" s="92" t="s">
         <v>131</v>
-      </c>
-      <c r="W35" s="140"/>
-      <c r="X35" s="140">
-        <v>5.9799999999999999E-2</v>
-      </c>
-      <c r="Y35" s="143">
-        <v>639.79999999999995</v>
-      </c>
-      <c r="Z35" s="143">
-        <v>48.17</v>
-      </c>
-      <c r="AA35" s="146" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB35" s="143">
-        <v>2507.2800000000002</v>
-      </c>
-      <c r="AC35" s="143">
-        <v>48.17</v>
-      </c>
-      <c r="AD35" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE35" s="146" t="s">
-        <v>134</v>
       </c>
       <c r="AF35" s="31"/>
       <c r="AG35" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH35" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI35" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ35" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK35" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL35" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AH35" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI35" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ35" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK35" s="36" t="s">
+      <c r="AM35" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN35" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AL35" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM35" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN35" s="36" t="s">
+      <c r="AO35" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="AO35" s="36" t="s">
+      <c r="AP35" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="AP35" s="36" t="s">
+      <c r="AQ35" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="AQ35" s="36" t="s">
-        <v>90</v>
-      </c>
       <c r="AS35" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AT35" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AU35" s="22">
         <v>1</v>
       </c>
       <c r="AV35" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AW35" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AX35" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AY35" s="22"/>
       <c r="AZ35" s="15"/>
@@ -3991,145 +3988,145 @@
       <c r="BB35" s="15"/>
     </row>
     <row r="36" spans="1:70" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="109"/>
+      <c r="B36" s="121"/>
       <c r="C36" s="25"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G36" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="L36" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J36" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="K36" s="26" t="s">
+      <c r="M36" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="P36" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q36" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="R36" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="S36" s="88"/>
+      <c r="T36" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="U36" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="L36" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M36" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="N36" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="O36" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="P36" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q36" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="R36" s="141" t="s">
+      <c r="V36" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="S36" s="142"/>
-      <c r="T36" s="141" t="s">
+      <c r="W36" s="88"/>
+      <c r="X36" s="88">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="Y36" s="90">
+        <v>639.79999999999995</v>
+      </c>
+      <c r="Z36" s="90">
+        <v>48.17</v>
+      </c>
+      <c r="AA36" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="U36" s="141" t="s">
+      <c r="AB36" s="90">
+        <v>2507.2800000000002</v>
+      </c>
+      <c r="AC36" s="90">
+        <v>48.17</v>
+      </c>
+      <c r="AD36" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="V36" s="141" t="s">
+      <c r="AE36" s="93" t="s">
         <v>131</v>
-      </c>
-      <c r="W36" s="142"/>
-      <c r="X36" s="142">
-        <v>5.9799999999999999E-2</v>
-      </c>
-      <c r="Y36" s="144">
-        <v>639.79999999999995</v>
-      </c>
-      <c r="Z36" s="144">
-        <v>48.17</v>
-      </c>
-      <c r="AA36" s="147" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB36" s="144">
-        <v>2507.2800000000002</v>
-      </c>
-      <c r="AC36" s="144">
-        <v>48.17</v>
-      </c>
-      <c r="AD36" s="147" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE36" s="147" t="s">
-        <v>134</v>
       </c>
       <c r="AF36" s="31"/>
       <c r="AG36" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH36" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI36" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ36" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK36" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL36" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AH36" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI36" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ36" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK36" s="37" t="s">
+      <c r="AM36" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN36" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="AL36" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM36" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN36" s="37" t="s">
+      <c r="AO36" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="AO36" s="37" t="s">
+      <c r="AP36" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="AP36" s="37" t="s">
+      <c r="AQ36" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AQ36" s="37" t="s">
-        <v>90</v>
-      </c>
       <c r="AS36" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AT36" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AU36" s="22">
         <v>1</v>
       </c>
       <c r="AV36" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AW36" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AX36" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AY36" s="22"/>
       <c r="AZ36" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BA36" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BB36" s="15">
         <v>0</v>
@@ -4167,16 +4164,16 @@
       <c r="AE37" s="4"/>
       <c r="AQ37" s="16"/>
       <c r="AS37" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AT37" s="52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AU37" s="16">
         <v>27</v>
       </c>
       <c r="AV37" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AW37" s="16"/>
       <c r="AX37" s="16"/>
@@ -4203,7 +4200,7 @@
     </row>
     <row r="38" spans="1:70" s="19" customFormat="1" ht="18.75">
       <c r="B38" s="53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" s="53"/>
       <c r="D38" s="53"/>
@@ -4262,7 +4259,7 @@
     </row>
     <row r="39" spans="1:70" s="19" customFormat="1" ht="18.75" customHeight="1">
       <c r="B39" s="58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C39" s="58"/>
       <c r="D39" s="58"/>
@@ -4500,7 +4497,7 @@
     </row>
     <row r="43" spans="1:70" s="19" customFormat="1" ht="18.75">
       <c r="B43" s="53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
@@ -4561,7 +4558,7 @@
     </row>
     <row r="44" spans="1:70" s="19" customFormat="1" ht="18.75">
       <c r="B44" s="58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C44" s="58"/>
       <c r="D44" s="53"/>
@@ -4799,7 +4796,7 @@
     </row>
     <row r="48" spans="1:70" s="19" customFormat="1" ht="18.75">
       <c r="B48" s="58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C48" s="58"/>
       <c r="D48" s="53"/>
@@ -4860,7 +4857,7 @@
     </row>
     <row r="49" spans="1:70" s="19" customFormat="1" ht="18.75">
       <c r="B49" s="58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C49" s="58"/>
       <c r="D49" s="53"/>
@@ -5363,7 +5360,7 @@
       <c r="K57" s="71"/>
       <c r="L57" s="71"/>
       <c r="M57" s="73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
@@ -5487,7 +5484,7 @@
       <c r="K59" s="71"/>
       <c r="L59" s="71"/>
       <c r="M59" s="45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N59" s="45"/>
       <c r="O59" s="45"/>
@@ -5578,7 +5575,7 @@
     </row>
     <row r="61" spans="1:70" s="46" customFormat="1" ht="18.75">
       <c r="B61" s="71" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C61" s="71"/>
       <c r="D61" s="71"/>
@@ -5684,10 +5681,10 @@
       <c r="AU63" s="21"/>
       <c r="AV63" s="21"/>
       <c r="AW63" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AX63" s="76" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AY63" s="21"/>
       <c r="AZ63" s="21"/>
@@ -5713,7 +5710,7 @@
     <row r="64" spans="1:70" s="8" customFormat="1">
       <c r="AQ64" s="16"/>
       <c r="AS64" s="77" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AT64" s="16"/>
       <c r="AU64" s="16"/>
@@ -5761,23 +5758,21 @@
     <mergeCell ref="U31:U32"/>
     <mergeCell ref="V31:V32"/>
     <mergeCell ref="W31:W32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="M31:M32"/>
     <mergeCell ref="N31:N32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="J31:J32"/>
     <mergeCell ref="K31:K32"/>
-    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:I31"/>
     <mergeCell ref="AN30:AO30"/>
     <mergeCell ref="AP30:AQ30"/>
     <mergeCell ref="AH31:AH33"/>
@@ -5804,6 +5799,8 @@
     <mergeCell ref="A29:AE29"/>
     <mergeCell ref="A28:AE28"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
   </mergeCells>
   <pageMargins left="0.70866141732282995" right="0.70866141732282995" top="0.74803149606299002" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="28" fitToHeight="500" orientation="portrait" r:id="rId1"/>

--- a/Reports/AreDifferent/decryption_hotWater_byHouse2/decryption_hotWater_byHouse2.xlsx
+++ b/Reports/AreDifferent/decryption_hotWater_byHouse2/decryption_hotWater_byHouse2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="138">
   <si>
     <t>Утверждаю :</t>
   </si>
@@ -419,6 +419,18 @@
   </si>
   <si>
     <t>"=O$R+P$R"</t>
+  </si>
+  <si>
+    <t>$t1['value6_NORM']</t>
+  </si>
+  <si>
+    <t>$SUM_t1['value6_NORM']</t>
+  </si>
+  <si>
+    <t>$SUM_t1['value6_DEV']</t>
+  </si>
+  <si>
+    <t>$t1['value6_DEV']</t>
   </si>
 </sst>
 </file>
@@ -1130,13 +1142,117 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,50 +1292,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1227,66 +1299,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1603,7 +1615,7 @@
   <dimension ref="A1:BR64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I17" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1744,24 +1756,24 @@
       <c r="BR3" s="16"/>
     </row>
     <row r="4" spans="1:70" s="15" customFormat="1" ht="18.75">
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="100"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
       <c r="AQ4" s="16"/>
       <c r="AR4" s="16"/>
       <c r="AS4" s="16"/>
@@ -1792,24 +1804,24 @@
       <c r="BR4" s="16"/>
     </row>
     <row r="5" spans="1:70" s="15" customFormat="1" ht="18.75">
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="100"/>
-      <c r="AC5" s="100"/>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="100"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="136"/>
       <c r="AQ5" s="16"/>
       <c r="AR5" s="16"/>
       <c r="AS5" s="16"/>
@@ -1918,39 +1930,39 @@
       <c r="BR7" s="16"/>
     </row>
     <row r="8" spans="1:70" s="15" customFormat="1" ht="20.25">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="101"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="137"/>
+      <c r="X8" s="137"/>
+      <c r="Y8" s="137"/>
+      <c r="Z8" s="137"/>
+      <c r="AA8" s="137"/>
+      <c r="AB8" s="137"/>
+      <c r="AC8" s="137"/>
+      <c r="AD8" s="137"/>
+      <c r="AE8" s="137"/>
       <c r="AQ8" s="16"/>
       <c r="AR8" s="16"/>
       <c r="AS8" s="16"/>
@@ -1981,39 +1993,39 @@
       <c r="BR8" s="16"/>
     </row>
     <row r="9" spans="1:70" s="15" customFormat="1">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="102"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="138"/>
+      <c r="W9" s="138"/>
+      <c r="X9" s="138"/>
+      <c r="Y9" s="138"/>
+      <c r="Z9" s="138"/>
+      <c r="AA9" s="138"/>
+      <c r="AB9" s="138"/>
+      <c r="AC9" s="138"/>
+      <c r="AD9" s="138"/>
+      <c r="AE9" s="138"/>
       <c r="AQ9" s="16"/>
       <c r="AR9" s="16"/>
       <c r="AS9" s="16"/>
@@ -2044,39 +2056,39 @@
       <c r="BR9" s="16"/>
     </row>
     <row r="10" spans="1:70" s="15" customFormat="1" ht="20.25">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="103"/>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="103"/>
-      <c r="Z10" s="103"/>
-      <c r="AA10" s="103"/>
-      <c r="AB10" s="103"/>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="103"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="139"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="139"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="139"/>
       <c r="AQ10" s="16"/>
       <c r="AR10" s="16"/>
       <c r="AS10" s="16"/>
@@ -2107,39 +2119,39 @@
       <c r="BR10" s="16"/>
     </row>
     <row r="11" spans="1:70" s="15" customFormat="1" ht="20.25">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="103"/>
-      <c r="Z11" s="103"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="103"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="139"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="139"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="139"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="139"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="139"/>
       <c r="AQ11" s="16"/>
       <c r="AR11" s="16"/>
       <c r="AS11" s="16"/>
@@ -2170,39 +2182,39 @@
       <c r="BR11" s="16"/>
     </row>
     <row r="12" spans="1:70" s="15" customFormat="1" ht="20.25">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="104"/>
-      <c r="AA12" s="104"/>
-      <c r="AB12" s="104"/>
-      <c r="AC12" s="104"/>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="104"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140"/>
+      <c r="U12" s="140"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="140"/>
+      <c r="AB12" s="140"/>
+      <c r="AC12" s="140"/>
+      <c r="AD12" s="140"/>
+      <c r="AE12" s="140"/>
       <c r="AQ12" s="16"/>
       <c r="AR12" s="16"/>
       <c r="AS12" s="16"/>
@@ -3160,39 +3172,39 @@
       <c r="BR26" s="16"/>
     </row>
     <row r="27" spans="1:70" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="106"/>
-      <c r="AA27" s="106"/>
-      <c r="AB27" s="106"/>
-      <c r="AC27" s="106"/>
-      <c r="AD27" s="106"/>
-      <c r="AE27" s="106"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="142"/>
+      <c r="N27" s="142"/>
+      <c r="O27" s="142"/>
+      <c r="P27" s="142"/>
+      <c r="Q27" s="142"/>
+      <c r="R27" s="142"/>
+      <c r="S27" s="142"/>
+      <c r="T27" s="142"/>
+      <c r="U27" s="142"/>
+      <c r="V27" s="142"/>
+      <c r="W27" s="142"/>
+      <c r="X27" s="142"/>
+      <c r="Y27" s="142"/>
+      <c r="Z27" s="142"/>
+      <c r="AA27" s="142"/>
+      <c r="AB27" s="142"/>
+      <c r="AC27" s="142"/>
+      <c r="AD27" s="142"/>
+      <c r="AE27" s="142"/>
       <c r="AF27" s="49"/>
       <c r="AG27" s="49"/>
       <c r="AH27" s="49"/>
@@ -3234,39 +3246,39 @@
       <c r="BR27" s="16"/>
     </row>
     <row r="28" spans="1:70" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="105" t="s">
+      <c r="A28" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="106"/>
-      <c r="AC28" s="106"/>
-      <c r="AD28" s="106"/>
-      <c r="AE28" s="106"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="142"/>
+      <c r="N28" s="142"/>
+      <c r="O28" s="142"/>
+      <c r="P28" s="142"/>
+      <c r="Q28" s="142"/>
+      <c r="R28" s="142"/>
+      <c r="S28" s="142"/>
+      <c r="T28" s="142"/>
+      <c r="U28" s="142"/>
+      <c r="V28" s="142"/>
+      <c r="W28" s="142"/>
+      <c r="X28" s="142"/>
+      <c r="Y28" s="142"/>
+      <c r="Z28" s="142"/>
+      <c r="AA28" s="142"/>
+      <c r="AB28" s="142"/>
+      <c r="AC28" s="142"/>
+      <c r="AD28" s="142"/>
+      <c r="AE28" s="142"/>
       <c r="AF28" s="50"/>
       <c r="AG28" s="50"/>
       <c r="AH28" s="50"/>
@@ -3308,39 +3320,39 @@
       <c r="BR28" s="16"/>
     </row>
     <row r="29" spans="1:70" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="108"/>
-      <c r="U29" s="108"/>
-      <c r="V29" s="108"/>
-      <c r="W29" s="108"/>
-      <c r="X29" s="108"/>
-      <c r="Y29" s="108"/>
-      <c r="Z29" s="108"/>
-      <c r="AA29" s="108"/>
-      <c r="AB29" s="108"/>
-      <c r="AC29" s="108"/>
-      <c r="AD29" s="108"/>
-      <c r="AE29" s="108"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="144"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="144"/>
+      <c r="Q29" s="144"/>
+      <c r="R29" s="144"/>
+      <c r="S29" s="144"/>
+      <c r="T29" s="144"/>
+      <c r="U29" s="144"/>
+      <c r="V29" s="144"/>
+      <c r="W29" s="144"/>
+      <c r="X29" s="144"/>
+      <c r="Y29" s="144"/>
+      <c r="Z29" s="144"/>
+      <c r="AA29" s="144"/>
+      <c r="AB29" s="144"/>
+      <c r="AC29" s="144"/>
+      <c r="AD29" s="144"/>
+      <c r="AE29" s="144"/>
       <c r="AF29" s="51"/>
       <c r="AG29" s="51"/>
       <c r="AH29" s="51"/>
@@ -3382,198 +3394,198 @@
       <c r="BR29" s="16"/>
     </row>
     <row r="30" spans="1:70" ht="15" customHeight="1">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="109" t="s">
+      <c r="B30" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="109" t="s">
+      <c r="C30" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109" t="s">
+      <c r="D30" s="117"/>
+      <c r="E30" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="109" t="s">
+      <c r="F30" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="122" t="s">
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="122"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="128" t="s">
+      <c r="K30" s="116"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="117"/>
+      <c r="R30" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="S30" s="129"/>
-      <c r="T30" s="129"/>
-      <c r="U30" s="129"/>
-      <c r="V30" s="129"/>
-      <c r="W30" s="129"/>
-      <c r="X30" s="136" t="s">
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="107"/>
+      <c r="W30" s="107"/>
+      <c r="X30" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="Y30" s="139" t="s">
+      <c r="Y30" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="Z30" s="139"/>
-      <c r="AA30" s="139"/>
-      <c r="AB30" s="139" t="s">
+      <c r="Z30" s="97"/>
+      <c r="AA30" s="97"/>
+      <c r="AB30" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="AC30" s="139"/>
-      <c r="AD30" s="139"/>
-      <c r="AE30" s="140" t="s">
+      <c r="AC30" s="97"/>
+      <c r="AD30" s="97"/>
+      <c r="AE30" s="98" t="s">
         <v>117</v>
       </c>
       <c r="AF30" s="27"/>
-      <c r="AG30" s="94" t="s">
+      <c r="AG30" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="AH30" s="97" t="s">
+      <c r="AH30" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AI30" s="98"/>
-      <c r="AJ30" s="97" t="s">
+      <c r="AI30" s="134"/>
+      <c r="AJ30" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="AK30" s="99"/>
-      <c r="AL30" s="117" t="s">
+      <c r="AK30" s="135"/>
+      <c r="AL30" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="AM30" s="117" t="s">
+      <c r="AM30" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="AN30" s="110" t="s">
+      <c r="AN30" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="AO30" s="111"/>
-      <c r="AP30" s="110" t="s">
+      <c r="AO30" s="121"/>
+      <c r="AP30" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="AQ30" s="112"/>
+      <c r="AQ30" s="122"/>
     </row>
     <row r="31" spans="1:70" ht="15" customHeight="1">
-      <c r="A31" s="109"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109" t="s">
+      <c r="A31" s="117"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109" t="s">
+      <c r="E31" s="117"/>
+      <c r="F31" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="109" t="s">
+      <c r="G31" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="122" t="s">
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="K31" s="122" t="s">
+      <c r="K31" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="L31" s="122" t="s">
+      <c r="L31" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="122" t="s">
+      <c r="M31" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="N31" s="122" t="s">
+      <c r="N31" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="O31" s="125" t="s">
+      <c r="O31" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="130" t="s">
+      <c r="P31" s="146"/>
+      <c r="Q31" s="147"/>
+      <c r="R31" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="S31" s="130" t="s">
+      <c r="S31" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="T31" s="132" t="s">
+      <c r="T31" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="U31" s="130" t="s">
+      <c r="U31" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="V31" s="131" t="s">
+      <c r="V31" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="W31" s="134" t="s">
+      <c r="W31" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="X31" s="137"/>
-      <c r="Y31" s="143" t="s">
+      <c r="X31" s="95"/>
+      <c r="Y31" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="Z31" s="143" t="s">
+      <c r="Z31" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="AA31" s="145" t="s">
+      <c r="AA31" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="AB31" s="143" t="s">
+      <c r="AB31" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="AC31" s="143" t="s">
+      <c r="AC31" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="AD31" s="147" t="s">
+      <c r="AD31" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="AE31" s="141"/>
+      <c r="AE31" s="99"/>
       <c r="AF31" s="27"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="113" t="s">
+      <c r="AG31" s="124"/>
+      <c r="AH31" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="AI31" s="113" t="s">
+      <c r="AI31" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="AJ31" s="113" t="s">
+      <c r="AJ31" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="AK31" s="113" t="s">
+      <c r="AK31" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="AL31" s="118"/>
-      <c r="AM31" s="118"/>
-      <c r="AN31" s="114" t="s">
+      <c r="AL31" s="130"/>
+      <c r="AM31" s="130"/>
+      <c r="AN31" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="AO31" s="114" t="s">
+      <c r="AO31" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="AP31" s="114" t="s">
+      <c r="AP31" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="AQ31" s="114" t="s">
+      <c r="AQ31" s="126" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:70" ht="57" customHeight="1">
-      <c r="A32" s="109"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
       <c r="G32" s="7" t="s">
         <v>20</v>
       </c>
@@ -3583,11 +3595,11 @@
       <c r="I32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="109"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="117"/>
       <c r="O32" s="80" t="s">
         <v>109</v>
       </c>
@@ -3597,32 +3609,32 @@
       <c r="Q32" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="R32" s="131"/>
-      <c r="S32" s="131"/>
-      <c r="T32" s="133"/>
-      <c r="U32" s="131"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="138"/>
-      <c r="Y32" s="144"/>
-      <c r="Z32" s="144"/>
-      <c r="AA32" s="146"/>
-      <c r="AB32" s="144"/>
-      <c r="AC32" s="144"/>
-      <c r="AD32" s="145"/>
-      <c r="AE32" s="142"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="96"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="102"/>
+      <c r="AA32" s="104"/>
+      <c r="AB32" s="102"/>
+      <c r="AC32" s="102"/>
+      <c r="AD32" s="103"/>
+      <c r="AE32" s="100"/>
       <c r="AF32" s="28"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="95"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="95"/>
-      <c r="AL32" s="118"/>
-      <c r="AM32" s="118"/>
-      <c r="AN32" s="115"/>
-      <c r="AO32" s="115"/>
-      <c r="AP32" s="115"/>
-      <c r="AQ32" s="115"/>
+      <c r="AG32" s="124"/>
+      <c r="AH32" s="124"/>
+      <c r="AI32" s="124"/>
+      <c r="AJ32" s="124"/>
+      <c r="AK32" s="124"/>
+      <c r="AL32" s="130"/>
+      <c r="AM32" s="130"/>
+      <c r="AN32" s="127"/>
+      <c r="AO32" s="127"/>
+      <c r="AP32" s="127"/>
+      <c r="AQ32" s="127"/>
     </row>
     <row r="33" spans="1:70" s="8" customFormat="1">
       <c r="A33" s="9">
@@ -3689,17 +3701,17 @@
       <c r="AD33" s="10"/>
       <c r="AE33" s="10"/>
       <c r="AF33" s="29"/>
-      <c r="AG33" s="96"/>
-      <c r="AH33" s="96"/>
-      <c r="AI33" s="96"/>
-      <c r="AJ33" s="96"/>
-      <c r="AK33" s="96"/>
-      <c r="AL33" s="119"/>
-      <c r="AM33" s="119"/>
-      <c r="AN33" s="116"/>
-      <c r="AO33" s="116"/>
-      <c r="AP33" s="116"/>
-      <c r="AQ33" s="116"/>
+      <c r="AG33" s="125"/>
+      <c r="AH33" s="125"/>
+      <c r="AI33" s="125"/>
+      <c r="AJ33" s="125"/>
+      <c r="AK33" s="125"/>
+      <c r="AL33" s="131"/>
+      <c r="AM33" s="131"/>
+      <c r="AN33" s="128"/>
+      <c r="AO33" s="128"/>
+      <c r="AP33" s="128"/>
+      <c r="AQ33" s="128"/>
       <c r="AS33" s="17"/>
       <c r="AW33" s="14" t="s">
         <v>42</v>
@@ -3749,10 +3761,10 @@
         <v>33</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="Q34" s="83" t="s">
         <v>133</v>
@@ -3849,10 +3861,10 @@
       <c r="BB34" s="21"/>
     </row>
     <row r="35" spans="1:70" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="123" t="s">
+      <c r="A35" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="124"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="23"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -3884,10 +3896,10 @@
         <v>37</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="Q35" s="24" t="s">
         <v>133</v>
@@ -3988,10 +4000,10 @@
       <c r="BB35" s="15"/>
     </row>
     <row r="36" spans="1:70" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="121"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="25"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
@@ -4023,10 +4035,10 @@
         <v>37</v>
       </c>
       <c r="O36" s="26" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="P36" s="26" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="Q36" s="26" t="s">
         <v>133</v>
@@ -5741,50 +5753,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="60">
-    <mergeCell ref="X30:X32"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AE30:AE32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AP30:AQ30"/>
-    <mergeCell ref="AH31:AH33"/>
-    <mergeCell ref="AI31:AI33"/>
-    <mergeCell ref="AJ31:AJ33"/>
-    <mergeCell ref="AK31:AK33"/>
-    <mergeCell ref="AN31:AN33"/>
-    <mergeCell ref="AO31:AO33"/>
-    <mergeCell ref="AP31:AP33"/>
-    <mergeCell ref="AQ31:AQ33"/>
-    <mergeCell ref="AL30:AL33"/>
-    <mergeCell ref="AM30:AM33"/>
     <mergeCell ref="AG30:AG33"/>
     <mergeCell ref="AH30:AI30"/>
     <mergeCell ref="AJ30:AK30"/>
@@ -5801,6 +5769,50 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="J30:Q30"/>
     <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AP30:AQ30"/>
+    <mergeCell ref="AH31:AH33"/>
+    <mergeCell ref="AI31:AI33"/>
+    <mergeCell ref="AJ31:AJ33"/>
+    <mergeCell ref="AK31:AK33"/>
+    <mergeCell ref="AN31:AN33"/>
+    <mergeCell ref="AO31:AO33"/>
+    <mergeCell ref="AP31:AP33"/>
+    <mergeCell ref="AQ31:AQ33"/>
+    <mergeCell ref="AL30:AL33"/>
+    <mergeCell ref="AM30:AM33"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="X30:X32"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AE30:AE32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="AD31:AD32"/>
   </mergeCells>
   <pageMargins left="0.70866141732282995" right="0.70866141732282995" top="0.74803149606299002" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="28" fitToHeight="500" orientation="portrait" r:id="rId1"/>
